--- a/CACHOEIRA_DO_SUL.xlsx
+++ b/CACHOEIRA_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1BEB966-B267-4F05-8840-91D250F9D1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C31BFCEE-9D38-4E3B-8021-8002482BEC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,20 +22,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1208,7 +1195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1268,36 +1255,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1336,14 +1299,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1395,7 +1353,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{80A6EE9C-293C-4661-8BFE-2B56C83C35F4}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{19E8619E-C8A8-40BE-8143-7AFBDA2F9A46}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1425,10 +1383,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6AE776-1029-4788-BA1D-8BCA2FCEA78F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB768365-47A9-49DC-A743-F07A2BA2DA7F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1424,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36740CB7-082D-49C6-9C16-FC1AE07E3AE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD77F498-12D7-4A22-B1F9-D60A57BE790B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1487,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE93BE8D-0088-43BD-94B8-8D6B37D59F1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0C5441-64D3-4628-B701-64A7F94D7387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1506,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C1A606-4BBA-41A5-5030-58BA54E4D19E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8347E09E-30EB-0AF9-1BBE-306B8500978A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1597,7 +1555,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4DD7FF-D84A-8068-0FA6-1487B58C0E5F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6117EED-E125-76C5-4DA6-A79A3BD6D34E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1616,7 +1574,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3375D9BE-9C37-F9CF-B39B-6AE13C4A2F0B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981BE73F-D417-F561-039B-1B809C9DC90C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1647,7 +1605,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75CD0C0-973E-9A70-893C-DDEFE4AA27FE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A99CC6-98E2-93C7-31F8-7D1E8678DA2A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1678,7 +1636,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFDF08A-797D-38B1-8BB8-A4C04C7B112F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FA3FF4-8B79-2189-4360-687F73FD2788}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1721,7 +1679,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A1362A-6FB2-4C91-B259-24DBD165F048}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A321F66-AF4E-41EE-9834-CF2DAD6AAA3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1717,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC50B3F-E0E9-4D11-AAD9-2E20C4D75D96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCA5A84-E00E-4EA1-BD90-EC01D0315252}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1760,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24780B58-9ABE-4E94-BFCC-997E75AE6AEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176EBF3A-78F9-4785-A3DD-6202C33B1A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2115,7 +2073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF1D118-63B2-4974-A44A-B65292AD2369}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CA9C49-E595-43AD-B741-547DCFE399E3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2127,98 +2085,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="39"/>
-    <col min="6" max="6" width="2" style="39" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="39" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="39"/>
+    <col min="1" max="5" width="12.5703125" style="36"/>
+    <col min="6" max="6" width="2" style="36" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="38"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="38"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="38"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="38"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="38"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="38"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="38"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="38"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="38"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="38"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="38"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="38"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="38"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="38"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="38"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="38"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="38"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="38"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="38"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="38"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="38"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="38"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="38"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="38"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="38"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="38"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="38"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="38"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="38"/>
+      <c r="F29" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5484,19 +5442,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5519,90 +5477,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5620,16 +5578,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="9" max="9" width="89" customWidth="1"/>
+    <col min="10" max="10" width="72.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5663,7 +5621,7 @@
       <c r="J1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5677,10 +5635,10 @@
       <c r="C2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="21">
         <v>310</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="21">
         <v>31</v>
       </c>
       <c r="F2" s="2">
@@ -5698,7 +5656,7 @@
       <c r="J2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="22">
         <v>10010</v>
       </c>
     </row>
@@ -5712,10 +5670,10 @@
       <c r="C3" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>140</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>14</v>
       </c>
       <c r="F3" s="2">
@@ -5733,7 +5691,7 @@
       <c r="J3" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="22">
         <v>9363</v>
       </c>
     </row>
@@ -5747,10 +5705,10 @@
       <c r="C4" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>106</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>10.6</v>
       </c>
       <c r="F4" s="2">
@@ -5768,7 +5726,7 @@
       <c r="J4" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="22">
         <v>1085</v>
       </c>
     </row>
@@ -5782,10 +5740,10 @@
       <c r="C5" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>144</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>14.4</v>
       </c>
       <c r="F5" s="2">
@@ -5803,7 +5761,7 @@
       <c r="J5" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="22">
         <v>658</v>
       </c>
     </row>
@@ -5817,10 +5775,10 @@
       <c r="C6" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>263</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>26.3</v>
       </c>
       <c r="F6" s="2">
@@ -5838,7 +5796,7 @@
       <c r="J6" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="22">
         <v>9363</v>
       </c>
     </row>
@@ -5852,10 +5810,10 @@
       <c r="C7" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>287</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>28.7</v>
       </c>
       <c r="F7" s="2">
@@ -5873,7 +5831,7 @@
       <c r="J7" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="22">
         <v>12273</v>
       </c>
     </row>
@@ -5887,10 +5845,10 @@
       <c r="C8" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>800</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>80</v>
       </c>
       <c r="F8" s="2">
@@ -5908,7 +5866,7 @@
       <c r="J8" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="22">
         <v>275</v>
       </c>
     </row>
@@ -5922,10 +5880,10 @@
       <c r="C9" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <v>480.1</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>48.01</v>
       </c>
       <c r="F9" s="2">
@@ -5943,7 +5901,7 @@
       <c r="J9" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="22">
         <v>656</v>
       </c>
     </row>
@@ -5957,10 +5915,10 @@
       <c r="C10" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="21">
         <v>480.1</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>48.01</v>
       </c>
       <c r="F10" s="2">
@@ -5978,7 +5936,7 @@
       <c r="J10" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="22">
         <v>12273</v>
       </c>
     </row>
@@ -5992,10 +5950,10 @@
       <c r="C11" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <v>480.1</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="21">
         <v>48.01</v>
       </c>
       <c r="F11" s="2">
@@ -6013,7 +5971,7 @@
       <c r="J11" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="22">
         <v>12273</v>
       </c>
     </row>
@@ -6027,10 +5985,10 @@
       <c r="C12" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="21">
         <v>480.1</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <v>48.01</v>
       </c>
       <c r="F12" s="2">
@@ -6048,7 +6006,7 @@
       <c r="J12" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="22">
         <v>12273</v>
       </c>
     </row>
@@ -6062,10 +6020,10 @@
       <c r="C13" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="21">
         <v>480.1</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <v>48.01</v>
       </c>
       <c r="F13" s="2">
@@ -6083,7 +6041,7 @@
       <c r="J13" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="22">
         <v>12273</v>
       </c>
     </row>
@@ -6097,10 +6055,10 @@
       <c r="C14" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <v>480.1</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="21">
         <v>48.01</v>
       </c>
       <c r="F14" s="2">
@@ -6118,7 +6076,7 @@
       <c r="J14" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="22">
         <v>12273</v>
       </c>
     </row>
@@ -6132,10 +6090,10 @@
       <c r="C15" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="21">
         <v>480.1</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="21">
         <v>48.01</v>
       </c>
       <c r="F15" s="2">
@@ -6153,7 +6111,7 @@
       <c r="J15" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="22">
         <v>11772</v>
       </c>
     </row>
@@ -6167,10 +6125,10 @@
       <c r="C16" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="21">
         <v>127.05</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <v>12.71</v>
       </c>
       <c r="F16" s="2">
@@ -6188,7 +6146,7 @@
       <c r="J16" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="22">
         <v>275</v>
       </c>
     </row>
@@ -6202,10 +6160,10 @@
       <c r="C17" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="21">
         <v>448</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="21">
         <v>44.8</v>
       </c>
       <c r="F17" s="2">
@@ -6223,7 +6181,7 @@
       <c r="J17" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="22">
         <v>11772</v>
       </c>
     </row>
@@ -6237,10 +6195,10 @@
       <c r="C18" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="21">
         <v>134</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="21">
         <v>13.4</v>
       </c>
       <c r="F18" s="2">
@@ -6258,7 +6216,7 @@
       <c r="J18" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="22">
         <v>11772</v>
       </c>
     </row>
@@ -6272,10 +6230,10 @@
       <c r="C19" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="21">
         <v>500</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="21">
         <v>50</v>
       </c>
       <c r="F19" s="2">
@@ -6293,7 +6251,7 @@
       <c r="J19" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="22">
         <v>656</v>
       </c>
     </row>
@@ -6307,10 +6265,10 @@
       <c r="C20" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="21">
         <v>1954</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="21">
         <v>195.4</v>
       </c>
       <c r="F20" s="2">
@@ -6328,7 +6286,7 @@
       <c r="J20" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="22">
         <v>275</v>
       </c>
     </row>
@@ -6342,10 +6300,10 @@
       <c r="C21" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="21">
         <v>360</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="21">
         <v>36</v>
       </c>
       <c r="F21" s="2">
@@ -6363,7 +6321,7 @@
       <c r="J21" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="22">
         <v>275</v>
       </c>
     </row>
@@ -6377,10 +6335,10 @@
       <c r="C22" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="21">
         <v>221</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="21">
         <v>22.1</v>
       </c>
       <c r="F22" s="2">
@@ -6398,7 +6356,7 @@
       <c r="J22" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="22">
         <v>972</v>
       </c>
     </row>
@@ -6412,10 +6370,10 @@
       <c r="C23" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="21">
         <v>164.15</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="21">
         <v>16.420000000000002</v>
       </c>
       <c r="F23" s="2">
@@ -6433,7 +6391,7 @@
       <c r="J23" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="22">
         <v>656</v>
       </c>
     </row>
@@ -6447,10 +6405,10 @@
       <c r="C24" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="21">
         <v>402.08</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="21">
         <v>40.21</v>
       </c>
       <c r="F24" s="2">
@@ -6468,7 +6426,7 @@
       <c r="J24" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="22">
         <v>656</v>
       </c>
     </row>
@@ -6482,10 +6440,10 @@
       <c r="C25" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="21">
         <v>790</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="21">
         <v>79</v>
       </c>
       <c r="F25" s="2">
@@ -6503,7 +6461,7 @@
       <c r="J25" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="22">
         <v>656</v>
       </c>
     </row>
@@ -6517,10 +6475,10 @@
       <c r="C26" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="21">
         <v>2113.4</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="21">
         <v>422.68</v>
       </c>
       <c r="F26" s="2">
@@ -6538,7 +6496,7 @@
       <c r="J26" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="22">
         <v>275</v>
       </c>
     </row>
@@ -6552,10 +6510,10 @@
       <c r="C27" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="21">
         <v>1089.5999999999999</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="21">
         <v>999.73</v>
       </c>
       <c r="F27" s="2">
@@ -6573,7 +6531,7 @@
       <c r="J27" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="22">
         <v>12273</v>
       </c>
     </row>
@@ -6598,54 +6556,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="23" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6656,43 +6615,43 @@
       <c r="B2" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="26">
         <v>45748</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="27">
         <v>5658</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="28">
         <v>54254</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="28">
         <v>4276</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="29" t="s">
         <v>345</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="29" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6723,25 +6682,24 @@
       <c r="B1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="E1" s="34">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="31">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="34">
         <v>69</v>
       </c>
-      <c r="F1" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" s="37">
-        <v>69</v>
-      </c>
-      <c r="C2" s="35">
+      <c r="C2" s="32">
         <v>4.5628885068112676E-3</v>
       </c>
     </row>

--- a/CACHOEIRA_DO_SUL.xlsx
+++ b/CACHOEIRA_DO_SUL.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C31BFCEE-9D38-4E3B-8021-8002482BEC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{356B1D0F-142D-45A9-9A5F-C473CFF89843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
@@ -21,13 +21,14 @@
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
+    <sheet name="DGC" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="353">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1074,6 +1075,18 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-Diversos</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1097,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,6 +1150,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1151,7 +1177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1186,6 +1212,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4C7C3"/>
         <bgColor rgb="FFF4C7C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1258,9 +1290,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1348,12 +1380,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{19E8619E-C8A8-40BE-8143-7AFBDA2F9A46}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{961F61EC-DE59-4AD8-9B8C-D1F3F6B729C8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1383,10 +1419,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB768365-47A9-49DC-A743-F07A2BA2DA7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F6C992-4AFF-49F7-9F15-C1AA6AA1C070}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +1460,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD77F498-12D7-4A22-B1F9-D60A57BE790B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120D31B2-710E-4145-A0AC-4BABDD15D947}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1523,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0C5441-64D3-4628-B701-64A7F94D7387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC4A9DB-2349-4230-B1BC-58E555258724}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,7 +1542,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8347E09E-30EB-0AF9-1BBE-306B8500978A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14BD331-4A45-23D0-04EB-21D8E546FF77}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1555,7 +1591,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6117EED-E125-76C5-4DA6-A79A3BD6D34E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12730565-D5B0-9836-490D-8D8EA8630EE9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1574,7 +1610,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981BE73F-D417-F561-039B-1B809C9DC90C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430F183A-7155-8DEF-1963-5AD17214FA5A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1605,7 +1641,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A99CC6-98E2-93C7-31F8-7D1E8678DA2A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F372B34E-B4FD-B563-D286-AAB46C758A30}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1636,7 +1672,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FA3FF4-8B79-2189-4360-687F73FD2788}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2371B4C9-B362-9541-1183-2763F899044A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1679,7 +1715,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A321F66-AF4E-41EE-9834-CF2DAD6AAA3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919FE410-5ECA-413D-B3F9-66BBB01FCAF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1753,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCA5A84-E00E-4EA1-BD90-EC01D0315252}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C4E960-30DE-4421-A1C0-EF7300CCB364}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1796,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176EBF3A-78F9-4785-A3DD-6202C33B1A49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9A1154-990C-4771-A51D-15B0975492D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CA9C49-E595-43AD-B741-547DCFE399E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBECA3C-9B68-494B-A796-4C18732EE269}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2085,98 +2121,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="38"/>
+    <col min="6" max="6" width="2" style="38" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6706,4 +6742,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/CACHOEIRA_DO_SUL.xlsx
+++ b/CACHOEIRA_DO_SUL.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{356B1D0F-142D-45A9-9A5F-C473CFF89843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4AE861-2797-4808-99D2-53C4A527C012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
-    <sheet name="DGC" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="351">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1069,12 +1068,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1292,7 +1285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,21 +1358,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1389,7 +1367,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{961F61EC-DE59-4AD8-9B8C-D1F3F6B729C8}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{897B4AD3-9528-429D-8950-3CCD0DC9E75F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1419,10 +1397,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F6C992-4AFF-49F7-9F15-C1AA6AA1C070}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3051C94A-62F2-4BC9-ACA5-5ED3D188A18D}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1438,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120D31B2-710E-4145-A0AC-4BABDD15D947}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BC847A-E00D-493F-A7C4-04F63CC07777}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,7 +1501,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC4A9DB-2349-4230-B1BC-58E555258724}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDDA0FD-7415-4B28-A16F-737E27728C04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1520,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14BD331-4A45-23D0-04EB-21D8E546FF77}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A7F03E-8395-9FEF-D8DC-459429154FBE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1591,7 +1569,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12730565-D5B0-9836-490D-8D8EA8630EE9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C468F4E-62B4-CF7D-F8BF-E61643F7820B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1610,7 +1588,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430F183A-7155-8DEF-1963-5AD17214FA5A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA00823-DFFE-1602-C2A3-A12596F093C7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1641,7 +1619,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F372B34E-B4FD-B563-D286-AAB46C758A30}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3311CA3E-8B2B-24CB-359A-2322A5360F71}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1672,7 +1650,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2371B4C9-B362-9541-1183-2763F899044A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EC1AE7-56C1-D993-2475-B5D412BEA2BD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1715,7 +1693,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919FE410-5ECA-413D-B3F9-66BBB01FCAF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF9BC51-6C8E-4000-A609-80B3205F16CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1731,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C4E960-30DE-4421-A1C0-EF7300CCB364}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88AB36E1-E0C6-47C2-B4CA-19B0A053F21F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,7 +1774,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9A1154-990C-4771-A51D-15B0975492D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFEDB1CC-3306-49E5-8BD3-9A105623BA51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBECA3C-9B68-494B-A796-4C18732EE269}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5AF1C0-C4FA-4AFC-A8D0-61123EA4465E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2121,98 +2099,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6698,54 +6676,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1" s="31">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" s="34">
-        <v>69</v>
-      </c>
-      <c r="C2" s="32">
-        <v>4.5628885068112676E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6758,25 +6688,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/CACHOEIRA_DO_SUL.xlsx
+++ b/CACHOEIRA_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4AE861-2797-4808-99D2-53C4A527C012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{275045C3-D813-49AA-BDDB-3A21DC23DA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1367,7 +1367,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{897B4AD3-9528-429D-8950-3CCD0DC9E75F}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{58C6F987-A7DA-4863-96E4-3A237A2FF665}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1397,10 +1397,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3051C94A-62F2-4BC9-ACA5-5ED3D188A18D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684CC52F-B131-40A7-BC50-1B06C30EA46D}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1438,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BC847A-E00D-493F-A7C4-04F63CC07777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4533CE70-D1D4-4247-B159-638C32667939}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,7 +1501,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDDA0FD-7415-4B28-A16F-737E27728C04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4446FB37-6B83-47BB-91DE-588CF2DA7AC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1520,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A7F03E-8395-9FEF-D8DC-459429154FBE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658E1F88-EA56-66C8-9CDC-1353045D12CD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C468F4E-62B4-CF7D-F8BF-E61643F7820B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53F0E9B-5262-65A2-F0C0-A32C46536957}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1588,7 +1588,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA00823-DFFE-1602-C2A3-A12596F093C7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B7A981-5C1F-98C5-7975-545A4FFBB972}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1619,7 +1619,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3311CA3E-8B2B-24CB-359A-2322A5360F71}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406A495A-E289-E9A7-C672-C80A6539BEB3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1650,7 +1650,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EC1AE7-56C1-D993-2475-B5D412BEA2BD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A72C627-6CA5-9526-5031-3B7D21523F30}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1693,7 +1693,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF9BC51-6C8E-4000-A609-80B3205F16CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0743CB7-FD3B-426E-AD4E-799EE006CEA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1731,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88AB36E1-E0C6-47C2-B4CA-19B0A053F21F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2CC9D29-FB9F-46EE-BCF0-D46556B573EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,50 +1756,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFEDB1CC-3306-49E5-8BD3-9A105623BA51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2087,7 +2043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5AF1C0-C4FA-4AFC-A8D0-61123EA4465E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DBA16D-6F1F-468A-966F-39352A4365AC}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
